--- a/INTLINE/data/144/SCB/old/NR0103ENS2010T12Kv.xlsx
+++ b/INTLINE/data/144/SCB/old/NR0103ENS2010T12Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <x:si>
     <x:t>GDP: production approach (ESA2010), working day adjusted, constant prices reference year 2020, SEK million by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
@@ -520,6 +520,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>GDP at market prices</x:t>
   </x:si>
   <x:si>
@@ -538,7 +541,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211129 09:30</x:t>
+    <x:t>20220228 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -610,7 +613,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -664,48 +667,42 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -716,7 +713,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -999,27 +996,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FL48"/>
+  <x:dimension ref="A1:FM48"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="168" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="169" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:168">
+    <x:row r="1" spans="1:169">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:168">
+    <x:row r="3" spans="1:169">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1521,658 +1517,660 @@
       <x:c r="FL3" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:168">
+      <x:c r="FM3" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:169">
       <x:c r="A4" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>547403</x:v>
+        <x:v>547651</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>563071</x:v>
+        <x:v>563326</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>511765</x:v>
+        <x:v>511997</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>583962</x:v>
+        <x:v>584227</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>560082</x:v>
+        <x:v>560336</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>572864</x:v>
+        <x:v>573124</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>509698</x:v>
+        <x:v>509929</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>591124</x:v>
+        <x:v>591392</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>563844</x:v>
+        <x:v>564100</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>577678</x:v>
+        <x:v>577940</x:v>
       </x:c>
       <x:c r="P4" s="4" t="n">
-        <x:v>525090</x:v>
+        <x:v>525328</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="n">
-        <x:v>611536</x:v>
+        <x:v>611814</x:v>
       </x:c>
       <x:c r="R4" s="4" t="n">
-        <x:v>603003</x:v>
+        <x:v>603276</x:v>
       </x:c>
       <x:c r="S4" s="4" t="n">
-        <x:v>606137</x:v>
+        <x:v>606412</x:v>
       </x:c>
       <x:c r="T4" s="4" t="n">
-        <x:v>543000</x:v>
+        <x:v>543246</x:v>
       </x:c>
       <x:c r="U4" s="4" t="n">
-        <x:v>630050</x:v>
+        <x:v>630336</x:v>
       </x:c>
       <x:c r="V4" s="4" t="n">
-        <x:v>601294</x:v>
+        <x:v>601567</x:v>
       </x:c>
       <x:c r="W4" s="4" t="n">
-        <x:v>621690</x:v>
+        <x:v>621972</x:v>
       </x:c>
       <x:c r="X4" s="4" t="n">
-        <x:v>565905</x:v>
+        <x:v>566162</x:v>
       </x:c>
       <x:c r="Y4" s="4" t="n">
-        <x:v>648960</x:v>
+        <x:v>649255</x:v>
       </x:c>
       <x:c r="Z4" s="4" t="n">
-        <x:v>634464</x:v>
+        <x:v>634752</x:v>
       </x:c>
       <x:c r="AA4" s="4" t="n">
-        <x:v>638415</x:v>
+        <x:v>638705</x:v>
       </x:c>
       <x:c r="AB4" s="4" t="n">
-        <x:v>578337</x:v>
+        <x:v>578599</x:v>
       </x:c>
       <x:c r="AC4" s="4" t="n">
-        <x:v>660677</x:v>
+        <x:v>660977</x:v>
       </x:c>
       <x:c r="AD4" s="4" t="n">
-        <x:v>646396</x:v>
+        <x:v>646690</x:v>
       </x:c>
       <x:c r="AE4" s="4" t="n">
-        <x:v>659530</x:v>
+        <x:v>659829</x:v>
       </x:c>
       <x:c r="AF4" s="4" t="n">
-        <x:v>601398</x:v>
+        <x:v>601671</x:v>
       </x:c>
       <x:c r="AG4" s="4" t="n">
-        <x:v>685726</x:v>
+        <x:v>686037</x:v>
       </x:c>
       <x:c r="AH4" s="4" t="n">
-        <x:v>673021</x:v>
+        <x:v>673327</x:v>
       </x:c>
       <x:c r="AI4" s="4" t="n">
-        <x:v>676643</x:v>
+        <x:v>676950</x:v>
       </x:c>
       <x:c r="AJ4" s="4" t="n">
-        <x:v>607449</x:v>
+        <x:v>607725</x:v>
       </x:c>
       <x:c r="AK4" s="4" t="n">
-        <x:v>694251</x:v>
+        <x:v>694566</x:v>
       </x:c>
       <x:c r="AL4" s="4" t="n">
-        <x:v>688464</x:v>
+        <x:v>688776</x:v>
       </x:c>
       <x:c r="AM4" s="4" t="n">
-        <x:v>696073</x:v>
+        <x:v>696389</x:v>
       </x:c>
       <x:c r="AN4" s="4" t="n">
-        <x:v>627826</x:v>
+        <x:v>628111</x:v>
       </x:c>
       <x:c r="AO4" s="4" t="n">
-        <x:v>712969</x:v>
+        <x:v>713293</x:v>
       </x:c>
       <x:c r="AP4" s="4" t="n">
-        <x:v>693671</x:v>
+        <x:v>693986</x:v>
       </x:c>
       <x:c r="AQ4" s="4" t="n">
-        <x:v>708471</x:v>
+        <x:v>708792</x:v>
       </x:c>
       <x:c r="AR4" s="4" t="n">
-        <x:v>629774</x:v>
+        <x:v>630060</x:v>
       </x:c>
       <x:c r="AS4" s="4" t="n">
-        <x:v>716091</x:v>
+        <x:v>716416</x:v>
       </x:c>
       <x:c r="AT4" s="4" t="n">
-        <x:v>691711</x:v>
+        <x:v>692025</x:v>
       </x:c>
       <x:c r="AU4" s="4" t="n">
-        <x:v>691135</x:v>
+        <x:v>691449</x:v>
       </x:c>
       <x:c r="AV4" s="4" t="n">
-        <x:v>627102</x:v>
+        <x:v>627387</x:v>
       </x:c>
       <x:c r="AW4" s="4" t="n">
-        <x:v>707850</x:v>
+        <x:v>708171</x:v>
       </x:c>
       <x:c r="AX4" s="4" t="n">
-        <x:v>694509</x:v>
+        <x:v>694823</x:v>
       </x:c>
       <x:c r="AY4" s="4" t="n">
-        <x:v>687384</x:v>
+        <x:v>687696</x:v>
       </x:c>
       <x:c r="AZ4" s="4" t="n">
-        <x:v>631456</x:v>
+        <x:v>631742</x:v>
       </x:c>
       <x:c r="BA4" s="4" t="n">
-        <x:v>677186</x:v>
+        <x:v>677493</x:v>
       </x:c>
       <x:c r="BB4" s="4" t="n">
-        <x:v>653482</x:v>
+        <x:v>653792</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
-        <x:v>672970</x:v>
+        <x:v>673269</x:v>
       </x:c>
       <x:c r="BD4" s="4" t="n">
-        <x:v>613938</x:v>
+        <x:v>614212</x:v>
       </x:c>
       <x:c r="BE4" s="4" t="n">
-        <x:v>701749</x:v>
+        <x:v>702037</x:v>
       </x:c>
       <x:c r="BF4" s="4" t="n">
-        <x:v>677938</x:v>
+        <x:v>678238</x:v>
       </x:c>
       <x:c r="BG4" s="4" t="n">
-        <x:v>695448</x:v>
+        <x:v>695757</x:v>
       </x:c>
       <x:c r="BH4" s="4" t="n">
-        <x:v>632451</x:v>
+        <x:v>632732</x:v>
       </x:c>
       <x:c r="BI4" s="4" t="n">
-        <x:v>737279</x:v>
+        <x:v>737583</x:v>
       </x:c>
       <x:c r="BJ4" s="4" t="n">
-        <x:v>712983</x:v>
+        <x:v>713279</x:v>
       </x:c>
       <x:c r="BK4" s="4" t="n">
-        <x:v>726481</x:v>
+        <x:v>726832</x:v>
       </x:c>
       <x:c r="BL4" s="4" t="n">
-        <x:v>655369</x:v>
+        <x:v>655679</x:v>
       </x:c>
       <x:c r="BM4" s="4" t="n">
-        <x:v>762200</x:v>
+        <x:v>762545</x:v>
       </x:c>
       <x:c r="BN4" s="4" t="n">
-        <x:v>731816</x:v>
+        <x:v>732119</x:v>
       </x:c>
       <x:c r="BO4" s="4" t="n">
-        <x:v>736933</x:v>
+        <x:v>737290</x:v>
       </x:c>
       <x:c r="BP4" s="4" t="n">
-        <x:v>663821</x:v>
+        <x:v>664115</x:v>
       </x:c>
       <x:c r="BQ4" s="4" t="n">
-        <x:v>770114</x:v>
+        <x:v>770486</x:v>
       </x:c>
       <x:c r="BR4" s="4" t="n">
-        <x:v>739105</x:v>
+        <x:v>739508</x:v>
       </x:c>
       <x:c r="BS4" s="4" t="n">
-        <x:v>762346</x:v>
+        <x:v>762661</x:v>
       </x:c>
       <x:c r="BT4" s="4" t="n">
-        <x:v>687909</x:v>
+        <x:v>688213</x:v>
       </x:c>
       <x:c r="BU4" s="4" t="n">
-        <x:v>808377</x:v>
+        <x:v>808768</x:v>
       </x:c>
       <x:c r="BV4" s="4" t="n">
-        <x:v>770347</x:v>
+        <x:v>770713</x:v>
       </x:c>
       <x:c r="BW4" s="4" t="n">
-        <x:v>798536</x:v>
+        <x:v>798923</x:v>
       </x:c>
       <x:c r="BX4" s="4" t="n">
-        <x:v>718956</x:v>
+        <x:v>719275</x:v>
       </x:c>
       <x:c r="BY4" s="4" t="n">
-        <x:v>836017</x:v>
+        <x:v>836395</x:v>
       </x:c>
       <x:c r="BZ4" s="4" t="n">
-        <x:v>801506</x:v>
+        <x:v>801886</x:v>
       </x:c>
       <x:c r="CA4" s="4" t="n">
-        <x:v>827734</x:v>
+        <x:v>828101</x:v>
       </x:c>
       <x:c r="CB4" s="4" t="n">
-        <x:v>747837</x:v>
+        <x:v>748170</x:v>
       </x:c>
       <x:c r="CC4" s="4" t="n">
-        <x:v>872242</x:v>
+        <x:v>872602</x:v>
       </x:c>
       <x:c r="CD4" s="4" t="n">
-        <x:v>832232</x:v>
+        <x:v>832577</x:v>
       </x:c>
       <x:c r="CE4" s="4" t="n">
-        <x:v>877551</x:v>
+        <x:v>877975</x:v>
       </x:c>
       <x:c r="CF4" s="4" t="n">
-        <x:v>795001</x:v>
+        <x:v>795377</x:v>
       </x:c>
       <x:c r="CG4" s="4" t="n">
-        <x:v>903219</x:v>
+        <x:v>903629</x:v>
       </x:c>
       <x:c r="CH4" s="4" t="n">
-        <x:v>859597</x:v>
+        <x:v>859952</x:v>
       </x:c>
       <x:c r="CI4" s="4" t="n">
-        <x:v>884614</x:v>
+        <x:v>885042</x:v>
       </x:c>
       <x:c r="CJ4" s="4" t="n">
-        <x:v>800416</x:v>
+        <x:v>800795</x:v>
       </x:c>
       <x:c r="CK4" s="4" t="n">
-        <x:v>916459</x:v>
+        <x:v>916901</x:v>
       </x:c>
       <x:c r="CL4" s="4" t="n">
-        <x:v>869204</x:v>
+        <x:v>869616</x:v>
       </x:c>
       <x:c r="CM4" s="4" t="n">
-        <x:v>907680</x:v>
+        <x:v>908082</x:v>
       </x:c>
       <x:c r="CN4" s="4" t="n">
-        <x:v>825225</x:v>
+        <x:v>825591</x:v>
       </x:c>
       <x:c r="CO4" s="4" t="n">
-        <x:v>935060</x:v>
+        <x:v>935511</x:v>
       </x:c>
       <x:c r="CP4" s="4" t="n">
-        <x:v>900752</x:v>
+        <x:v>901179</x:v>
       </x:c>
       <x:c r="CQ4" s="4" t="n">
-        <x:v>918931</x:v>
+        <x:v>919375</x:v>
       </x:c>
       <x:c r="CR4" s="4" t="n">
-        <x:v>844431</x:v>
+        <x:v>844805</x:v>
       </x:c>
       <x:c r="CS4" s="4" t="n">
-        <x:v>958813</x:v>
+        <x:v>959276</x:v>
       </x:c>
       <x:c r="CT4" s="4" t="n">
-        <x:v>931095</x:v>
+        <x:v>931507</x:v>
       </x:c>
       <x:c r="CU4" s="4" t="n">
-        <x:v>959766</x:v>
+        <x:v>960191</x:v>
       </x:c>
       <x:c r="CV4" s="4" t="n">
-        <x:v>876932</x:v>
+        <x:v>877321</x:v>
       </x:c>
       <x:c r="CW4" s="4" t="n">
-        <x:v>995924</x:v>
+        <x:v>996336</x:v>
       </x:c>
       <x:c r="CX4" s="4" t="n">
-        <x:v>952583</x:v>
+        <x:v>953072</x:v>
       </x:c>
       <x:c r="CY4" s="4" t="n">
-        <x:v>987310</x:v>
+        <x:v>987690</x:v>
       </x:c>
       <x:c r="CZ4" s="4" t="n">
-        <x:v>905689</x:v>
+        <x:v>906090</x:v>
       </x:c>
       <x:c r="DA4" s="4" t="n">
-        <x:v>1025273</x:v>
+        <x:v>1025696</x:v>
       </x:c>
       <x:c r="DB4" s="4" t="n">
-        <x:v>990613</x:v>
+        <x:v>991023</x:v>
       </x:c>
       <x:c r="DC4" s="4" t="n">
-        <x:v>1039094</x:v>
+        <x:v>1039596</x:v>
       </x:c>
       <x:c r="DD4" s="4" t="n">
-        <x:v>952910</x:v>
+        <x:v>953362</x:v>
       </x:c>
       <x:c r="DE4" s="4" t="n">
-        <x:v>1077850</x:v>
+        <x:v>1078338</x:v>
       </x:c>
       <x:c r="DF4" s="4" t="n">
-        <x:v>1033746</x:v>
+        <x:v>1034174</x:v>
       </x:c>
       <x:c r="DG4" s="4" t="n">
-        <x:v>1074761</x:v>
+        <x:v>1075281</x:v>
       </x:c>
       <x:c r="DH4" s="4" t="n">
-        <x:v>981149</x:v>
+        <x:v>981613</x:v>
       </x:c>
       <x:c r="DI4" s="4" t="n">
-        <x:v>1115032</x:v>
+        <x:v>1115569</x:v>
       </x:c>
       <x:c r="DJ4" s="4" t="n">
-        <x:v>1049426</x:v>
+        <x:v>1049922</x:v>
       </x:c>
       <x:c r="DK4" s="4" t="n">
-        <x:v>1088010</x:v>
+        <x:v>1088427</x:v>
       </x:c>
       <x:c r="DL4" s="4" t="n">
-        <x:v>979467</x:v>
+        <x:v>979902</x:v>
       </x:c>
       <x:c r="DM4" s="4" t="n">
-        <x:v>1059350</x:v>
+        <x:v>1059862</x:v>
       </x:c>
       <x:c r="DN4" s="4" t="n">
-        <x:v>991445</x:v>
+        <x:v>991914</x:v>
       </x:c>
       <x:c r="DO4" s="4" t="n">
-        <x:v>1031136</x:v>
+        <x:v>1031592</x:v>
       </x:c>
       <x:c r="DP4" s="4" t="n">
-        <x:v>931848</x:v>
+        <x:v>932262</x:v>
       </x:c>
       <x:c r="DQ4" s="4" t="n">
-        <x:v>1045248</x:v>
+        <x:v>1045722</x:v>
       </x:c>
       <x:c r="DR4" s="4" t="n">
-        <x:v>1022606</x:v>
+        <x:v>1023090</x:v>
       </x:c>
       <x:c r="DS4" s="4" t="n">
-        <x:v>1086638</x:v>
+        <x:v>1087087</x:v>
       </x:c>
       <x:c r="DT4" s="4" t="n">
-        <x:v>995075</x:v>
+        <x:v>995516</x:v>
       </x:c>
       <x:c r="DU4" s="4" t="n">
-        <x:v>1124050</x:v>
+        <x:v>1124513</x:v>
       </x:c>
       <x:c r="DV4" s="4" t="n">
-        <x:v>1077098</x:v>
+        <x:v>1077575</x:v>
       </x:c>
       <x:c r="DW4" s="4" t="n">
-        <x:v>1125616</x:v>
+        <x:v>1126114</x:v>
       </x:c>
       <x:c r="DX4" s="4" t="n">
-        <x:v>1032780</x:v>
+        <x:v>1033238</x:v>
       </x:c>
       <x:c r="DY4" s="4" t="n">
-        <x:v>1128518</x:v>
+        <x:v>1128984</x:v>
       </x:c>
       <x:c r="DZ4" s="4" t="n">
-        <x:v>1081640</x:v>
+        <x:v>1082087</x:v>
       </x:c>
       <x:c r="EA4" s="4" t="n">
-        <x:v>1128695</x:v>
+        <x:v>1129240</x:v>
       </x:c>
       <x:c r="EB4" s="4" t="n">
-        <x:v>1019849</x:v>
+        <x:v>1020332</x:v>
       </x:c>
       <x:c r="EC4" s="4" t="n">
-        <x:v>1121930</x:v>
+        <x:v>1122473</x:v>
       </x:c>
       <x:c r="ED4" s="4" t="n">
-        <x:v>1089159</x:v>
+        <x:v>1089674</x:v>
       </x:c>
       <x:c r="EE4" s="4" t="n">
-        <x:v>1134462</x:v>
+        <x:v>1134964</x:v>
       </x:c>
       <x:c r="EF4" s="4" t="n">
-        <x:v>1029178</x:v>
+        <x:v>1029635</x:v>
       </x:c>
       <x:c r="EG4" s="4" t="n">
-        <x:v>1151044</x:v>
+        <x:v>1151600</x:v>
       </x:c>
       <x:c r="EH4" s="4" t="n">
-        <x:v>1109035</x:v>
+        <x:v>1109559</x:v>
       </x:c>
       <x:c r="EI4" s="4" t="n">
-        <x:v>1166911</x:v>
+        <x:v>1167474</x:v>
       </x:c>
       <x:c r="EJ4" s="4" t="n">
-        <x:v>1059976</x:v>
+        <x:v>1060446</x:v>
       </x:c>
       <x:c r="EK4" s="4" t="n">
-        <x:v>1190070</x:v>
+        <x:v>1190645</x:v>
       </x:c>
       <x:c r="EL4" s="4" t="n">
-        <x:v>1149179</x:v>
+        <x:v>1149722</x:v>
       </x:c>
       <x:c r="EM4" s="4" t="n">
-        <x:v>1213310</x:v>
+        <x:v>1213848</x:v>
       </x:c>
       <x:c r="EN4" s="4" t="n">
-        <x:v>1107945</x:v>
+        <x:v>1108435</x:v>
       </x:c>
       <x:c r="EO4" s="4" t="n">
-        <x:v>1248217</x:v>
+        <x:v>1248783</x:v>
       </x:c>
       <x:c r="EP4" s="4" t="n">
-        <x:v>1183010</x:v>
+        <x:v>1183618</x:v>
       </x:c>
       <x:c r="EQ4" s="4" t="n">
-        <x:v>1239887</x:v>
+        <x:v>1240363</x:v>
       </x:c>
       <x:c r="ER4" s="4" t="n">
-        <x:v>1117597</x:v>
+        <x:v>1118093</x:v>
       </x:c>
       <x:c r="ES4" s="4" t="n">
-        <x:v>1265096</x:v>
+        <x:v>1265617</x:v>
       </x:c>
       <x:c r="ET4" s="4" t="n">
-        <x:v>1202365</x:v>
+        <x:v>1202862</x:v>
       </x:c>
       <x:c r="EU4" s="4" t="n">
-        <x:v>1277802</x:v>
+        <x:v>1278418</x:v>
       </x:c>
       <x:c r="EV4" s="4" t="n">
-        <x:v>1156418</x:v>
+        <x:v>1156966</x:v>
       </x:c>
       <x:c r="EW4" s="4" t="n">
-        <x:v>1303660</x:v>
+        <x:v>1304249</x:v>
       </x:c>
       <x:c r="EX4" s="4" t="n">
-        <x:v>1234993</x:v>
+        <x:v>1235539</x:v>
       </x:c>
       <x:c r="EY4" s="4" t="n">
-        <x:v>1310563</x:v>
+        <x:v>1311143</x:v>
       </x:c>
       <x:c r="EZ4" s="4" t="n">
-        <x:v>1164066</x:v>
+        <x:v>1164617</x:v>
       </x:c>
       <x:c r="FA4" s="4" t="n">
-        <x:v>1331780</x:v>
+        <x:v>1332423</x:v>
       </x:c>
       <x:c r="FB4" s="4" t="n">
-        <x:v>1264505</x:v>
+        <x:v>1265065</x:v>
       </x:c>
       <x:c r="FC4" s="4" t="n">
-        <x:v>1332964</x:v>
+        <x:v>1333607</x:v>
       </x:c>
       <x:c r="FD4" s="4" t="n">
-        <x:v>1194150</x:v>
+        <x:v>1194678</x:v>
       </x:c>
       <x:c r="FE4" s="4" t="n">
-        <x:v>1350999</x:v>
+        <x:v>1351651</x:v>
       </x:c>
       <x:c r="FF4" s="4" t="n">
-        <x:v>1265381</x:v>
+        <x:v>1265849</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>1221369</x:v>
+        <x:v>1221800</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
-        <x:v>1169849</x:v>
+        <x:v>1170122</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>1323252</x:v>
+        <x:v>1324500</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>1265244</x:v>
+        <x:v>1266521</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>1337671</x:v>
+        <x:v>1335342</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>1224601</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:168">
+        <x:v>1219482</x:v>
+      </x:c>
+      <x:c r="FM4" s="4" t="n">
+        <x:v>1393940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:169">
       <x:c r="A6" s="5" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:168">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:169">
       <x:c r="A7" s="5" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:168">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:169">
       <x:c r="A8" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:168">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:169">
       <x:c r="A10" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:168">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:169">
       <x:c r="A11" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:168">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:169">
       <x:c r="A13" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:168">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:169">
       <x:c r="A14" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:168">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:169">
       <x:c r="A16" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:168">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:169">
       <x:c r="A17" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:168">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:169">
       <x:c r="A18" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:168">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:169">
       <x:c r="A19" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:169">
+      <x:c r="A21" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:169">
+      <x:c r="A22" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:168">
-      <x:c r="A20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:168">
-      <x:c r="A21" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:168">
-      <x:c r="A22" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:168">
+    <x:row r="23" spans="1:169">
       <x:c r="A23" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:168">
-      <x:c r="A24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:168">
-      <x:c r="A25" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:168">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:169">
       <x:c r="A28" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:168">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:169">
       <x:c r="A29" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:168">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:169">
       <x:c r="A31" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:168">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:169">
       <x:c r="A32" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:168">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:169">
       <x:c r="A34" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:168">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:169">
       <x:c r="A35" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:168">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:169">
       <x:c r="A38" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:168">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:169">
       <x:c r="A39" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:168">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:169">
       <x:c r="A42" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:168">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:169">
       <x:c r="A44" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:168">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:169">
       <x:c r="A45" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:168">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:169">
       <x:c r="A47" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:168">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:169">
       <x:c r="A48" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A6:FM6"/>
+    <x:mergeCell ref="A7:FM7"/>
+    <x:mergeCell ref="A8:FM8"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
